--- a/Backend/uploads/$datos deExel.xlsx
+++ b/Backend/uploads/$datos deExel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">unidad</t>
   </si>
   <si>
+    <t xml:space="preserve">cantidad_inicial</t>
+  </si>
+  <si>
     <t xml:space="preserve">cantidad</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t xml:space="preserve">KILOGRAMO</t>
   </si>
   <si>
-    <t xml:space="preserve">cemento 3</t>
+    <t xml:space="preserve">Cemento 3</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -91,6 +94,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -139,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +160,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,13 +188,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.92"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -193,11 +215,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,21 +230,24 @@
         <v>3131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>44916</v>
       </c>
     </row>
@@ -228,21 +256,24 @@
         <v>3421</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>44916</v>
       </c>
     </row>
@@ -251,13 +282,13 @@
         <v>4213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4213</v>
+        <v>342</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>10</v>
@@ -265,9 +296,16 @@
       <c r="F4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>44916</v>
       </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
